--- a/extensos.xlsx
+++ b/extensos.xlsx
@@ -556,12 +556,18 @@
       <name val="Dialog"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -576,11 +582,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,7 +896,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C168" sqref="C168"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -898,13 +905,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>169</v>
       </c>
     </row>
